--- a/03_Outputs/all/01_TablasDescriptivas/idx10_juventud.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx10_juventud.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,20 +392,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Incid. VCM/VIF/VSX (jóvenes)</t>
+          <t>Vinc. NNA en grupos armados</t>
         </is>
       </c>
       <c r="B2">
         <v>125</v>
       </c>
       <c r="C2">
-        <v>-312.4975361366057</v>
+        <v>-2.565364028262495</v>
       </c>
       <c r="D2">
-        <v>214.8607444396108</v>
+        <v>7.159583646361786</v>
       </c>
       <c r="E2">
-        <v>-1055.758446517199</v>
+        <v>-45.67405843675584</v>
       </c>
       <c r="F2">
         <v>-0</v>
@@ -414,20 +414,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Incid. VCM/VIF/VSX (adolesc.)</t>
+          <t>Fecundidad niñas 10–14 x100k</t>
         </is>
       </c>
       <c r="B3">
         <v>125</v>
       </c>
       <c r="C3">
-        <v>-460.4492232578251</v>
+        <v>-3.099922991761605</v>
       </c>
       <c r="D3">
-        <v>258.8729421500416</v>
+        <v>3.845362878325587</v>
       </c>
       <c r="E3">
-        <v>-1437.498088137917</v>
+        <v>-31.85284881112607</v>
       </c>
       <c r="F3">
         <v>-0</v>
@@ -436,42 +436,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vinc. NNA en grupos armados</t>
+          <t>Fecundidad 15–19 x100k</t>
         </is>
       </c>
       <c r="B4">
         <v>125</v>
       </c>
       <c r="C4">
-        <v>-2.565364028262495</v>
+        <v>-55.31968453630134</v>
       </c>
       <c r="D4">
-        <v>7.159583646361786</v>
+        <v>34.35299820172847</v>
       </c>
       <c r="E4">
-        <v>-45.67405843675584</v>
+        <v>-270.6974420709112</v>
       </c>
       <c r="F4">
-        <v>-0</v>
+        <v>-7.639503446142933</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fecundidad niñas 10–14 x100k</t>
+          <t>% colegios en C–D</t>
         </is>
       </c>
       <c r="B5">
         <v>125</v>
       </c>
       <c r="C5">
-        <v>-3.099922991761605</v>
+        <v>-73.6261126184185</v>
       </c>
       <c r="D5">
-        <v>3.845362878325587</v>
+        <v>31.84773199569388</v>
       </c>
       <c r="E5">
-        <v>-31.85284881112607</v>
+        <v>-100</v>
       </c>
       <c r="F5">
         <v>-0</v>
@@ -480,242 +480,176 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fecundidad 15–19 x100k</t>
+          <t>% jóvenes 15–28 NiNi</t>
         </is>
       </c>
       <c r="B6">
         <v>125</v>
       </c>
       <c r="C6">
-        <v>-55.31968453630134</v>
+        <v>-28.39786032926606</v>
       </c>
       <c r="D6">
-        <v>34.35299820172847</v>
+        <v>7.992279574026044</v>
       </c>
       <c r="E6">
-        <v>-270.6974420709112</v>
+        <v>-49.02584826452</v>
       </c>
       <c r="F6">
-        <v>-7.639503446142933</v>
+        <v>-9.490623169868449</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>% colegios en C–D</t>
+          <t>Cobertura bruta media</t>
         </is>
       </c>
       <c r="B7">
         <v>125</v>
       </c>
       <c r="C7">
-        <v>-73.6261126184185</v>
+        <v>82.33104000854493</v>
       </c>
       <c r="D7">
-        <v>31.84773199569388</v>
+        <v>17.64237138815768</v>
       </c>
       <c r="E7">
-        <v>-100</v>
+        <v>43.84000015258789</v>
       </c>
       <c r="F7">
-        <v>-0</v>
+        <v>142.7100067138672</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>% jóvenes 15–28 NiNi</t>
+          <t>Cobertura bruta secundaria</t>
         </is>
       </c>
       <c r="B8">
         <v>125</v>
       </c>
       <c r="C8">
-        <v>-28.39786032926606</v>
+        <v>101.49872</v>
       </c>
       <c r="D8">
-        <v>7.992279574026044</v>
+        <v>17.08132185789212</v>
       </c>
       <c r="E8">
-        <v>-49.02584826452</v>
+        <v>63.62</v>
       </c>
       <c r="F8">
-        <v>-9.490623169868449</v>
+        <v>145.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cobertura bruta ed. superior</t>
+          <t>Deserción intraanual (media)</t>
         </is>
       </c>
       <c r="B9">
         <v>125</v>
       </c>
       <c r="C9">
-        <v>8.123331984642681</v>
+        <v>-3.484000003814697</v>
       </c>
       <c r="D9">
-        <v>23.15077887745327</v>
+        <v>1.873912151184953</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-13.32999992370605</v>
       </c>
       <c r="F9">
-        <v>133.4175615919141</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cobertura bruta media</t>
+          <t>Deserción intraanual (secundaria)</t>
         </is>
       </c>
       <c r="B10">
         <v>125</v>
       </c>
       <c r="C10">
-        <v>82.33104000854493</v>
+        <v>-6.020559992790222</v>
       </c>
       <c r="D10">
-        <v>17.64237138815768</v>
+        <v>2.738106595378933</v>
       </c>
       <c r="E10">
-        <v>43.84000015258789</v>
+        <v>-20.21999931335449</v>
       </c>
       <c r="F10">
-        <v>142.7100067138672</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cobertura bruta secundaria</t>
+          <t>Repitencia (media)</t>
         </is>
       </c>
       <c r="B11">
         <v>125</v>
       </c>
       <c r="C11">
-        <v>101.49872</v>
+        <v>-3.654400021076202</v>
       </c>
       <c r="D11">
-        <v>17.08132185789212</v>
+        <v>2.091984487810037</v>
       </c>
       <c r="E11">
-        <v>63.62</v>
+        <v>-11.26000022888184</v>
       </c>
       <c r="F11">
-        <v>145.41</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Deserción intraanual (media)</t>
+          <t>Repitencia (secundaria)</t>
         </is>
       </c>
       <c r="B12">
         <v>125</v>
       </c>
       <c r="C12">
-        <v>-3.484000003814697</v>
+        <v>-12.56488001251221</v>
       </c>
       <c r="D12">
-        <v>1.873912151184953</v>
+        <v>4.421421068910504</v>
       </c>
       <c r="E12">
-        <v>-13.32999992370605</v>
+        <v>-29.8799991607666</v>
       </c>
       <c r="F12">
-        <v>-0</v>
+        <v>-3.809999942779541</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Deserción intraanual (secundaria)</t>
+          <t>Tránsito inmediato a ed. sup.</t>
         </is>
       </c>
       <c r="B13">
         <v>125</v>
       </c>
       <c r="C13">
-        <v>-6.020559992790222</v>
+        <v>31.51521099388429</v>
       </c>
       <c r="D13">
-        <v>2.738106595378933</v>
+        <v>12.37999991810119</v>
       </c>
       <c r="E13">
-        <v>-20.21999931335449</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="F13">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Repitencia (media)</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>125</v>
-      </c>
-      <c r="C14">
-        <v>-3.654400021076202</v>
-      </c>
-      <c r="D14">
-        <v>2.091984487810037</v>
-      </c>
-      <c r="E14">
-        <v>-11.26000022888184</v>
-      </c>
-      <c r="F14">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Repitencia (secundaria)</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>125</v>
-      </c>
-      <c r="C15">
-        <v>-12.56488001251221</v>
-      </c>
-      <c r="D15">
-        <v>4.421421068910504</v>
-      </c>
-      <c r="E15">
-        <v>-29.8799991607666</v>
-      </c>
-      <c r="F15">
-        <v>-3.809999942779541</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Tránsito inmediato a ed. sup.</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>125</v>
-      </c>
-      <c r="C16">
-        <v>31.51521099388429</v>
-      </c>
-      <c r="D16">
-        <v>12.37999991810119</v>
-      </c>
-      <c r="E16">
-        <v>7.777777777777778</v>
-      </c>
-      <c r="F16">
         <v>65.625</v>
       </c>
     </row>
